--- a/results/mp/tinybert/home-spam/confidence/210/stop-words-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/210/stop-words-masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="95">
   <si>
     <t>anchor score</t>
   </si>
@@ -82,13 +82,16 @@
     <t>best</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>loved</t>
+    <t>friends</t>
   </si>
   <si>
     <t>thank</t>
@@ -100,51 +103,51 @@
     <t>great</t>
   </si>
   <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
     <t>kids</t>
   </si>
   <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
     <t>rice</t>
   </si>
   <si>
-    <t>husband</t>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>potatoes</t>
   </si>
   <si>
     <t>wife</t>
   </si>
   <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>potatoes</t>
-  </si>
-  <si>
     <t>pie</t>
   </si>
   <si>
@@ -157,10 +160,25 @@
     <t>bread</t>
   </si>
   <si>
+    <t>gift</t>
+  </si>
+  <si>
     <t>ze</t>
   </si>
   <si>
-    <t>gift</t>
+    <t>baking</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>pop</t>
   </si>
   <si>
     <t>popcorn</t>
@@ -169,130 +187,115 @@
     <t>cream</t>
   </si>
   <si>
-    <t>baking</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
     <t>years</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>comfortable</t>
-  </si>
-  <si>
     <t>easy</t>
   </si>
   <si>
-    <t>cooking</t>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>always</t>
   </si>
   <si>
     <t>old</t>
   </si>
   <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>tea</t>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>kitchen</t>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>works</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>dish</t>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>recommend</t>
   </si>
   <si>
     <t>every</t>
   </si>
   <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>pan</t>
+    <t>also</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>make</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>also</t>
+    <t>one</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>buy</t>
   </si>
   <si>
     <t>time</t>
   </si>
   <si>
+    <t>use</t>
+  </si>
+  <si>
     <t>used</t>
-  </si>
-  <si>
-    <t>use</t>
   </si>
   <si>
     <t>positive</t>
@@ -653,7 +656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q81"/>
+  <dimension ref="A1:Q82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -664,7 +667,7 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -796,13 +799,13 @@
         <v>15</v>
       </c>
       <c r="K4">
-        <v>0.967741935483871</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="L4">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M4">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -814,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -822,13 +825,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3720930232558139</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="C5">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D5">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -840,19 +843,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K5">
-        <v>0.8984375</v>
+        <v>0.9140625</v>
       </c>
       <c r="L5">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M5">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -864,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -872,13 +875,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3333333333333333</v>
+        <v>0.3232323232323233</v>
       </c>
       <c r="C6">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -890,19 +893,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K6">
-        <v>0.8695652173913043</v>
+        <v>0.8840579710144928</v>
       </c>
       <c r="L6">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M6">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -914,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -922,13 +925,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1351351351351351</v>
+        <v>0.1405405405405405</v>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -940,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K7">
-        <v>0.8637770897832817</v>
+        <v>0.8575851393188855</v>
       </c>
       <c r="L7">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="M7">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -964,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -972,13 +975,13 @@
         <v>19</v>
       </c>
       <c r="K8">
-        <v>0.8478260869565217</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="L8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -990,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -998,13 +1001,13 @@
         <v>20</v>
       </c>
       <c r="K9">
-        <v>0.7727272727272727</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L9">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M9">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1016,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1024,13 +1027,13 @@
         <v>21</v>
       </c>
       <c r="K10">
-        <v>0.7316017316017316</v>
+        <v>0.7489177489177489</v>
       </c>
       <c r="L10">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M10">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1042,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1050,13 +1053,13 @@
         <v>22</v>
       </c>
       <c r="K11">
-        <v>0.7142857142857143</v>
+        <v>0.7016949152542373</v>
       </c>
       <c r="L11">
-        <v>55</v>
+        <v>207</v>
       </c>
       <c r="M11">
-        <v>55</v>
+        <v>207</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1068,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>22</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1076,13 +1079,13 @@
         <v>23</v>
       </c>
       <c r="K12">
-        <v>0.7050847457627119</v>
+        <v>0.676056338028169</v>
       </c>
       <c r="L12">
-        <v>208</v>
+        <v>48</v>
       </c>
       <c r="M12">
-        <v>208</v>
+        <v>48</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1094,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>87</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1102,13 +1105,13 @@
         <v>24</v>
       </c>
       <c r="K13">
-        <v>0.6901408450704225</v>
+        <v>0.6753246753246753</v>
       </c>
       <c r="L13">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M13">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1120,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1131,10 +1134,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="L14">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M14">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1146,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1154,13 +1157,13 @@
         <v>26</v>
       </c>
       <c r="K15">
-        <v>0.6575342465753424</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L15">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="M15">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1172,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1180,13 +1183,13 @@
         <v>27</v>
       </c>
       <c r="K16">
-        <v>0.6565008025682183</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="L16">
-        <v>818</v>
+        <v>48</v>
       </c>
       <c r="M16">
-        <v>818</v>
+        <v>48</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1198,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>428</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1206,13 +1209,13 @@
         <v>28</v>
       </c>
       <c r="K17">
-        <v>0.6530612244897959</v>
+        <v>0.6492776886035313</v>
       </c>
       <c r="L17">
-        <v>32</v>
+        <v>809</v>
       </c>
       <c r="M17">
-        <v>32</v>
+        <v>809</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1224,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>17</v>
+        <v>437</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1232,13 +1235,13 @@
         <v>29</v>
       </c>
       <c r="K18">
-        <v>0.609375</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L18">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="M18">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1250,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1258,13 +1261,13 @@
         <v>30</v>
       </c>
       <c r="K19">
-        <v>0.6057142857142858</v>
+        <v>0.609375</v>
       </c>
       <c r="L19">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="M19">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1276,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>69</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1284,13 +1287,13 @@
         <v>31</v>
       </c>
       <c r="K20">
-        <v>0.5769230769230769</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L20">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="M20">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1302,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1310,13 +1313,13 @@
         <v>32</v>
       </c>
       <c r="K21">
-        <v>0.5735294117647058</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="L21">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M21">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1328,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1336,13 +1339,13 @@
         <v>33</v>
       </c>
       <c r="K22">
-        <v>0.5641025641025641</v>
+        <v>0.5961538461538461</v>
       </c>
       <c r="L22">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="M22">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1354,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1362,13 +1365,13 @@
         <v>34</v>
       </c>
       <c r="K23">
-        <v>0.5571428571428572</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L23">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M23">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1380,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1388,13 +1391,13 @@
         <v>35</v>
       </c>
       <c r="K24">
-        <v>0.5538461538461539</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L24">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M24">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1406,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1414,13 +1417,13 @@
         <v>36</v>
       </c>
       <c r="K25">
-        <v>0.5490196078431373</v>
+        <v>0.5828571428571429</v>
       </c>
       <c r="L25">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="M25">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1432,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>23</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1440,13 +1443,13 @@
         <v>37</v>
       </c>
       <c r="K26">
-        <v>0.543859649122807</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="L26">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M26">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1458,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1466,13 +1469,13 @@
         <v>38</v>
       </c>
       <c r="K27">
-        <v>0.5416666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L27">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="M27">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1484,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1492,13 +1495,13 @@
         <v>39</v>
       </c>
       <c r="K28">
-        <v>0.5416666666666666</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="L28">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M28">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1544,13 +1547,13 @@
         <v>41</v>
       </c>
       <c r="K30">
-        <v>0.5263157894736842</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L30">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="M30">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1562,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1570,13 +1573,13 @@
         <v>42</v>
       </c>
       <c r="K31">
-        <v>0.5238095238095238</v>
+        <v>0.5138888888888888</v>
       </c>
       <c r="L31">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M31">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1588,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1596,13 +1599,13 @@
         <v>43</v>
       </c>
       <c r="K32">
-        <v>0.5230769230769231</v>
+        <v>0.5131578947368421</v>
       </c>
       <c r="L32">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M32">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1614,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1622,13 +1625,13 @@
         <v>44</v>
       </c>
       <c r="K33">
-        <v>0.5128205128205128</v>
+        <v>0.5076923076923077</v>
       </c>
       <c r="L33">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="M33">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1640,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>57</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1648,13 +1651,13 @@
         <v>45</v>
       </c>
       <c r="K34">
-        <v>0.5060240963855421</v>
+        <v>0.4957264957264957</v>
       </c>
       <c r="L34">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="M34">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1666,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1674,13 +1677,13 @@
         <v>46</v>
       </c>
       <c r="K35">
-        <v>0.49</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="L35">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="M35">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1692,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1700,13 +1703,13 @@
         <v>47</v>
       </c>
       <c r="K36">
-        <v>0.4320987654320987</v>
+        <v>0.46</v>
       </c>
       <c r="L36">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="M36">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1718,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1726,13 +1729,13 @@
         <v>48</v>
       </c>
       <c r="K37">
-        <v>0.427710843373494</v>
+        <v>0.4457831325301205</v>
       </c>
       <c r="L37">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M37">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1744,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1752,13 +1755,13 @@
         <v>49</v>
       </c>
       <c r="K38">
-        <v>0.4210526315789473</v>
+        <v>0.4197530864197531</v>
       </c>
       <c r="L38">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M38">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1770,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1778,13 +1781,13 @@
         <v>50</v>
       </c>
       <c r="K39">
-        <v>0.4117647058823529</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L39">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M39">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1796,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1804,13 +1807,13 @@
         <v>51</v>
       </c>
       <c r="K40">
-        <v>0.3833333333333334</v>
+        <v>0.4032258064516129</v>
       </c>
       <c r="L40">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M40">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1830,13 +1833,13 @@
         <v>52</v>
       </c>
       <c r="K41">
-        <v>0.3759398496240601</v>
+        <v>0.3984962406015037</v>
       </c>
       <c r="L41">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M41">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1848,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1856,13 +1859,13 @@
         <v>53</v>
       </c>
       <c r="K42">
-        <v>0.3696498054474708</v>
+        <v>0.3873873873873874</v>
       </c>
       <c r="L42">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="M42">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1874,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>162</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1882,13 +1885,13 @@
         <v>54</v>
       </c>
       <c r="K43">
-        <v>0.3676470588235294</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="L43">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="M43">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1900,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>258</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1908,13 +1911,13 @@
         <v>55</v>
       </c>
       <c r="K44">
-        <v>0.360655737704918</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="L44">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="M44">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1926,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1934,13 +1937,13 @@
         <v>56</v>
       </c>
       <c r="K45">
-        <v>0.326027397260274</v>
+        <v>0.3676470588235294</v>
       </c>
       <c r="L45">
-        <v>238</v>
+        <v>25</v>
       </c>
       <c r="M45">
-        <v>238</v>
+        <v>25</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1952,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>492</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1960,13 +1963,13 @@
         <v>57</v>
       </c>
       <c r="K46">
-        <v>0.3243243243243243</v>
+        <v>0.3579766536964981</v>
       </c>
       <c r="L46">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="M46">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1978,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>75</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1986,13 +1989,13 @@
         <v>58</v>
       </c>
       <c r="K47">
-        <v>0.3082706766917293</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="L47">
-        <v>41</v>
+        <v>144</v>
       </c>
       <c r="M47">
-        <v>41</v>
+        <v>144</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2004,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>92</v>
+        <v>264</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2012,13 +2015,13 @@
         <v>59</v>
       </c>
       <c r="K48">
-        <v>0.3055555555555556</v>
+        <v>0.3136986301369863</v>
       </c>
       <c r="L48">
-        <v>33</v>
+        <v>229</v>
       </c>
       <c r="M48">
-        <v>33</v>
+        <v>229</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2030,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>75</v>
+        <v>501</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2038,13 +2041,13 @@
         <v>60</v>
       </c>
       <c r="K49">
-        <v>0.2949640287769784</v>
+        <v>0.3093525179856115</v>
       </c>
       <c r="L49">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M49">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2056,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2064,13 +2067,13 @@
         <v>61</v>
       </c>
       <c r="K50">
-        <v>0.2781456953642384</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="L50">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="M50">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2082,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>109</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2090,13 +2093,13 @@
         <v>62</v>
       </c>
       <c r="K51">
-        <v>0.2673267326732673</v>
+        <v>0.2976190476190476</v>
       </c>
       <c r="L51">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M51">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2108,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2116,13 +2119,13 @@
         <v>63</v>
       </c>
       <c r="K52">
-        <v>0.2619047619047619</v>
+        <v>0.2932330827067669</v>
       </c>
       <c r="L52">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="M52">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2134,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>62</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2142,13 +2145,13 @@
         <v>64</v>
       </c>
       <c r="K53">
-        <v>0.2561894510226049</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="L53">
-        <v>238</v>
+        <v>57</v>
       </c>
       <c r="M53">
-        <v>238</v>
+        <v>57</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2160,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>691</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2168,13 +2171,13 @@
         <v>65</v>
       </c>
       <c r="K54">
-        <v>0.2522522522522522</v>
+        <v>0.2612612612612613</v>
       </c>
       <c r="L54">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M54">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2186,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2194,13 +2197,13 @@
         <v>66</v>
       </c>
       <c r="K55">
-        <v>0.2392344497607655</v>
+        <v>0.2475247524752475</v>
       </c>
       <c r="L55">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M55">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2212,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>159</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2220,13 +2223,13 @@
         <v>67</v>
       </c>
       <c r="K56">
-        <v>0.2281879194630873</v>
+        <v>0.2454251883745963</v>
       </c>
       <c r="L56">
-        <v>34</v>
+        <v>228</v>
       </c>
       <c r="M56">
-        <v>34</v>
+        <v>228</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2238,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>115</v>
+        <v>701</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2246,25 +2249,25 @@
         <v>68</v>
       </c>
       <c r="K57">
-        <v>0.2232142857142857</v>
+        <v>0.2450331125827815</v>
       </c>
       <c r="L57">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M57">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="N57">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>87</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2272,13 +2275,13 @@
         <v>69</v>
       </c>
       <c r="K58">
-        <v>0.2095238095238095</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="L58">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M58">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2290,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2298,13 +2301,13 @@
         <v>70</v>
       </c>
       <c r="K59">
-        <v>0.2018348623853211</v>
+        <v>0.23</v>
       </c>
       <c r="L59">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M59">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2316,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2324,13 +2327,13 @@
         <v>71</v>
       </c>
       <c r="K60">
-        <v>0.201219512195122</v>
+        <v>0.223841059602649</v>
       </c>
       <c r="L60">
-        <v>33</v>
+        <v>169</v>
       </c>
       <c r="M60">
-        <v>33</v>
+        <v>169</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2342,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>131</v>
+        <v>586</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2350,13 +2353,13 @@
         <v>72</v>
       </c>
       <c r="K61">
-        <v>0.1973509933774834</v>
+        <v>0.2147651006711409</v>
       </c>
       <c r="L61">
-        <v>149</v>
+        <v>32</v>
       </c>
       <c r="M61">
-        <v>149</v>
+        <v>32</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2368,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>606</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2376,13 +2379,13 @@
         <v>73</v>
       </c>
       <c r="K62">
-        <v>0.1777493606138107</v>
+        <v>0.2100313479623825</v>
       </c>
       <c r="L62">
-        <v>139</v>
+        <v>67</v>
       </c>
       <c r="M62">
-        <v>139</v>
+        <v>67</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2394,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>643</v>
+        <v>252</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2402,25 +2405,25 @@
         <v>74</v>
       </c>
       <c r="K63">
-        <v>0.1734417344173442</v>
+        <v>0.1918158567774936</v>
       </c>
       <c r="L63">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="M63">
-        <v>66</v>
+        <v>150</v>
       </c>
       <c r="N63">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>305</v>
+        <v>632</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2428,25 +2431,25 @@
         <v>75</v>
       </c>
       <c r="K64">
-        <v>0.1724137931034483</v>
+        <v>0.1648648648648649</v>
       </c>
       <c r="L64">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="M64">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>264</v>
+        <v>309</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2454,25 +2457,25 @@
         <v>76</v>
       </c>
       <c r="K65">
-        <v>0.1344827586206896</v>
+        <v>0.1646341463414634</v>
       </c>
       <c r="L65">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="M65">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="N65">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>251</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2480,13 +2483,13 @@
         <v>77</v>
       </c>
       <c r="K66">
-        <v>0.1337719298245614</v>
+        <v>0.1527093596059113</v>
       </c>
       <c r="L66">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="M66">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2498,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>395</v>
+        <v>172</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2506,13 +2509,13 @@
         <v>78</v>
       </c>
       <c r="K67">
-        <v>0.1333333333333333</v>
+        <v>0.1468926553672316</v>
       </c>
       <c r="L67">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M67">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2524,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>234</v>
+        <v>151</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2532,13 +2535,13 @@
         <v>79</v>
       </c>
       <c r="K68">
-        <v>0.1328413284132841</v>
+        <v>0.134453781512605</v>
       </c>
       <c r="L68">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M68">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2550,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>235</v>
+        <v>206</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2584,13 +2587,13 @@
         <v>81</v>
       </c>
       <c r="K70">
-        <v>0.1242937853107345</v>
+        <v>0.1192214111922141</v>
       </c>
       <c r="L70">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="M70">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2602,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>155</v>
+        <v>362</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2610,13 +2613,13 @@
         <v>82</v>
       </c>
       <c r="K71">
-        <v>0.1241050119331742</v>
+        <v>0.1184210526315789</v>
       </c>
       <c r="L71">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M71">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2628,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>367</v>
+        <v>402</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2636,13 +2639,13 @@
         <v>83</v>
       </c>
       <c r="K72">
-        <v>0.1192214111922141</v>
+        <v>0.1145584725536993</v>
       </c>
       <c r="L72">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M72">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2654,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>362</v>
+        <v>371</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2662,13 +2665,13 @@
         <v>84</v>
       </c>
       <c r="K73">
-        <v>0.1176470588235294</v>
+        <v>0.1143911439114391</v>
       </c>
       <c r="L73">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M73">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2680,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>210</v>
+        <v>240</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2688,13 +2691,13 @@
         <v>85</v>
       </c>
       <c r="K74">
-        <v>0.1133004926108374</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L74">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M74">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2706,7 +2709,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>180</v>
+        <v>240</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2714,13 +2717,13 @@
         <v>86</v>
       </c>
       <c r="K75">
-        <v>0.08469945355191257</v>
+        <v>0.1099656357388316</v>
       </c>
       <c r="L75">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M75">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2732,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>335</v>
+        <v>259</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -2740,13 +2743,13 @@
         <v>87</v>
       </c>
       <c r="K76">
-        <v>0.07555970149253731</v>
+        <v>0.07649253731343283</v>
       </c>
       <c r="L76">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M76">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2758,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -2766,13 +2769,13 @@
         <v>88</v>
       </c>
       <c r="K77">
-        <v>0.06456241032998565</v>
+        <v>0.06886657101865136</v>
       </c>
       <c r="L77">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M77">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N77">
         <v>0.98</v>
@@ -2784,7 +2787,7 @@
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -2792,25 +2795,25 @@
         <v>89</v>
       </c>
       <c r="K78">
-        <v>0.06361323155216285</v>
+        <v>0.06010928961748634</v>
       </c>
       <c r="L78">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M78">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N78">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O78">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78">
-        <v>368</v>
+        <v>344</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -2818,13 +2821,13 @@
         <v>90</v>
       </c>
       <c r="K79">
-        <v>0.05535055350553506</v>
+        <v>0.0583756345177665</v>
       </c>
       <c r="L79">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M79">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -2836,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>512</v>
+        <v>371</v>
       </c>
     </row>
     <row r="80" spans="10:17">
@@ -2844,25 +2847,25 @@
         <v>91</v>
       </c>
       <c r="K80">
-        <v>0.05182341650671785</v>
+        <v>0.05719557195571956</v>
       </c>
       <c r="L80">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M80">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N80">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O80">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q80">
-        <v>494</v>
+        <v>511</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -2870,13 +2873,13 @@
         <v>92</v>
       </c>
       <c r="K81">
-        <v>0.04498269896193772</v>
+        <v>0.04671280276816609</v>
       </c>
       <c r="L81">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M81">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N81">
         <v>0.98</v>
@@ -2888,7 +2891,33 @@
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>1104</v>
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="82" spans="10:17">
+      <c r="J82" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K82">
+        <v>0.04230769230769231</v>
+      </c>
+      <c r="L82">
+        <v>22</v>
+      </c>
+      <c r="M82">
+        <v>24</v>
+      </c>
+      <c r="N82">
+        <v>0.92</v>
+      </c>
+      <c r="O82">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P82" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>498</v>
       </c>
     </row>
   </sheetData>
